--- a/data_examples/TV_Inspection_SCREEN CHECK v5.0.xlsx
+++ b/data_examples/TV_Inspection_SCREEN CHECK v5.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{393891BB-9A36-4DEA-ABCE-A4F13B30C9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69992377-C0A1-4AB8-A58F-17556006DD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -7218,7 +7218,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>53339</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7473,7 +7473,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>53341</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7887,8 +7887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="21"/>
@@ -7968,26 +7968,26 @@
       </c>
       <c r="B2" s="157" t="str">
         <f>IF(OR(ISBLANK(C2),C2=0, ISBLANK(D2),D2=0), "NOT CHECKED", IF(OR(AND(NOT(AND(ISBLANK(C2),C2=0)), C2&lt;G2), AND(NOT(AND(ISBLANK(D2),D2=0)), D2&lt;G2)), "FAIL", "PASS"))</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="C2" s="118">
         <f>IF(R2,IF('9 points'!R3&gt;0,'9 points'!R3,0),IF('5_13 points'!V3&gt;0,'5_13 points'!V3,0))</f>
-        <v>323.60000000000002</v>
+        <v>320</v>
       </c>
       <c r="D2" s="118">
         <f>IF(R2,IF('9 points'!S3&gt;0,'9 points'!S3,0),IF('5_13 points'!W3&gt;0,'5_13 points'!W3,0))</f>
-        <v>323.60000000000002</v>
+        <v>320</v>
       </c>
       <c r="E2" s="118">
         <f>IF(R2,IF('9 points'!T3&gt;0,'9 points'!T3,0),IF('5_13 points'!X3&gt;0,'5_13 points'!X3,0))</f>
-        <v>323.60000000000002</v>
+        <v>320</v>
       </c>
       <c r="F2" s="120">
         <f>(E2-C2)/2</f>
         <v>0</v>
       </c>
       <c r="G2" s="228">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="H2" s="224">
         <v>330</v>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="B3" s="158" t="str">
         <f>IF(OR(ISBLANK(C3),C3=0, ISBLANK(D3),D3=0), "NOT CHECKED", IF(OR(AND(NOT(AND(ISBLANK(C3),C3=0)), C3&lt;G3), AND(NOT(AND(ISBLANK(D3),D3=0)), D3&lt;G3)), "FAIL", "PASS"))</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="C3" s="153">
         <f>IF(R2,IF('9 points'!R4&gt;0,'9 points'!R4,0),IF('5_13 points'!V4&gt;0,'5_13 points'!V4,0))</f>
@@ -8043,10 +8043,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="229">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="H3" s="225">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I3" s="162"/>
       <c r="J3" s="163"/>
@@ -8075,15 +8075,15 @@
       </c>
       <c r="C4" s="153">
         <f>IF(R2,IF('9 points'!R5&gt;0,'9 points'!R5,0),IF('5_13 points'!V5&gt;0,'5_13 points'!V5,0))</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="D4" s="153">
         <f>IF(R2,IF('9 points'!S5&gt;0,'9 points'!S5,0),IF('5_13 points'!W5&gt;0,'5_13 points'!W5,0))</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="E4" s="153">
         <f>IF(R2,IF('9 points'!T5&gt;0,'9 points'!T5,0),IF('5_13 points'!X5&gt;0,'5_13 points'!X5,0))</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="F4" s="121">
         <f>IFERROR((E4-C4)/2,"")</f>
@@ -8113,19 +8113,19 @@
       </c>
       <c r="B5" s="158" t="str">
         <f>IF(OR(ISBLANK(C5),C5=0, ISBLANK(D5),D5=0), "NOT CHECKED", IF(OR(AND(NOT(AND(ISBLANK(C5),C5=0)), C5&lt;G5), AND(NOT(AND(ISBLANK(D5),D5=0)), D5&lt;(H5*(1-$Q$1)))), "FAIL", "PASS"))</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="C5" s="154">
         <f>IF(R2,IF('9 points'!R5&gt;0,'9 points'!R5,0),IF('5_13 points'!V6&gt;0,'5_13 points'!V6,0))</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="D5" s="154">
         <f>IF(R2,IF('9 points'!S5&gt;0,'9 points'!S5,0),IF('5_13 points'!W6&gt;0,'5_13 points'!W6,0))</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="E5" s="154">
         <f>IF(R2,IF('9 points'!T5&gt;0,'9 points'!T5,0),IF('5_13 points'!X6&gt;0,'5_13 points'!X6,0))</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="F5" s="122">
         <f>(E5-C5)/2</f>
@@ -8135,7 +8135,7 @@
         <v>3500</v>
       </c>
       <c r="H5" s="226">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="I5" s="164"/>
       <c r="J5" s="165"/>
@@ -8146,7 +8146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" hidden="1">
       <c r="A6" s="174" t="s">
         <v>92</v>
       </c>
@@ -8156,15 +8156,15 @@
       </c>
       <c r="C6" s="154">
         <f>IF(R2,IF('9 points'!R5&gt;0,'9 points'!R5,0),IF('5_13 points'!V6&gt;0,'5_13 points'!V6,0))</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="D6" s="154">
         <f>IF(R2,IF('9 points'!S5&gt;0,'9 points'!S5,0),IF('5_13 points'!W6&gt;0,'5_13 points'!W6,0))</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="E6" s="154">
         <f>IF(R2,IF('9 points'!T5&gt;0,'9 points'!T5,0),IF('5_13 points'!X6&gt;0,'5_13 points'!X6,0))</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="F6" s="122">
         <f>(E6-C6)/2</f>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="B7" s="158" t="str">
         <f>IF(OR(ISBLANK(C7),C7=0, ISBLANK(D7),D7=0), "NOT CHECKED", IF(OR(AND(NOT(AND(ISBLANK(C7),C7=0)), C7&lt;G7), AND(NOT(AND(ISBLANK(D7),D7=0)), D7&lt;G7)), "FAIL", "PASS"))</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="C7" s="153">
         <f>IF(R2,IF('9 points'!R6&gt;0,'9 points'!R6,0),IF('5_13 points'!V7&gt;0,'5_13 points'!V7,0))</f>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="229">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H7" s="225">
         <v>0.85</v>
@@ -12364,7 +12364,7 @@
   <dimension ref="A1:AA189"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -12517,15 +12517,15 @@
       </c>
       <c r="R3" s="44" cm="1">
         <f t="array" ref="R3">MIN(IF(X3:Y12&gt;0,X3:Y12,""))</f>
-        <v>323.60000000000002</v>
+        <v>320</v>
       </c>
       <c r="S3" s="44">
         <f>IFERROR(AVERAGEIF(X3:Y12,"&gt;0"),0)</f>
-        <v>323.60000000000002</v>
+        <v>320</v>
       </c>
       <c r="T3" s="45">
         <f>MAX(X3:Y12)</f>
-        <v>323.60000000000002</v>
+        <v>320</v>
       </c>
       <c r="U3" s="64">
         <f>IF(F5=0,"",F5)</f>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="V3" s="50">
         <f>IF(F7=0,"",F7)</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="W3" s="66">
         <f>IF(F8=0,"",F8)</f>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="X3" s="67">
         <f>F6</f>
-        <v>323.60000000000002</v>
+        <v>320</v>
       </c>
       <c r="Y3" s="67">
         <f>L6</f>
@@ -12675,15 +12675,15 @@
       </c>
       <c r="R5" s="50" cm="1">
         <f t="array" ref="R5">IF(MIN(IF(V3:V22&gt;0,V3:V22,""))=0,S4,MIN(IF(V3:V22&gt;0,V3:V22,"")))</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="S5" s="50">
         <f>IFERROR(AVERAGEIF(V3:V22,"&gt;0"),0)</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="T5" s="51">
         <f>MAX(V3:V22)</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="U5" s="64" t="str">
         <f>IF(F23=0,"",F23)</f>
@@ -12726,7 +12726,7 @@
       <c r="E6" s="204"/>
       <c r="F6" s="28">
         <f>MAX(C3:E5,C7)</f>
-        <v>323.60000000000002</v>
+        <v>320</v>
       </c>
       <c r="G6" s="196"/>
       <c r="H6" s="200"/>
@@ -12793,7 +12793,7 @@
         <v>83</v>
       </c>
       <c r="C7" s="77">
-        <v>323.60000000000002</v>
+        <v>320</v>
       </c>
       <c r="D7" s="78">
         <v>7.2171650000000004E-2</v>
@@ -12801,7 +12801,7 @@
       <c r="E7" s="79"/>
       <c r="F7" s="28">
         <f>IFERROR(C7/D7,"")</f>
-        <v>4483.7550478615913</v>
+        <v>4433.8739657469378</v>
       </c>
       <c r="G7" s="196"/>
       <c r="H7" s="76" t="s">
